--- a/Jatin Gupta/final_df.xlsx
+++ b/Jatin Gupta/final_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="34">
   <si>
     <t>Day Index</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>log_Impressions</t>
+  </si>
+  <si>
+    <t>DayOfWeek_numeric</t>
+  </si>
+  <si>
+    <t>Month_numeric</t>
   </si>
   <si>
     <t>2021-12</t>
@@ -471,13 +477,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K213"/>
+  <dimension ref="A1:M213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,19 +517,25 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2">
         <v>44531</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>14</v>
@@ -546,19 +558,25 @@
       <c r="K2">
         <v>6.431331081933479</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>44532</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -581,19 +599,25 @@
       <c r="K3">
         <v>6.792344427470809</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>44533</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>13</v>
@@ -616,19 +640,25 @@
       <c r="K4">
         <v>6.747586526829315</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>44534</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>22</v>
@@ -651,19 +681,25 @@
       <c r="K5">
         <v>6.782192056006791</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>44535</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>33</v>
@@ -686,19 +722,25 @@
       <c r="K6">
         <v>6.520621127558696</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>44536</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>12</v>
@@ -721,19 +763,25 @@
       <c r="K7">
         <v>6.903747257584598</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>44537</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>29</v>
@@ -756,19 +804,25 @@
       <c r="K8">
         <v>6.814542897259958</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>44538</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>24</v>
@@ -791,19 +845,25 @@
       <c r="K9">
         <v>6.766191714660351</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>44539</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>23</v>
@@ -826,19 +886,25 @@
       <c r="K10">
         <v>7.029087564149662</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>44540</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>38</v>
@@ -861,19 +927,25 @@
       <c r="K11">
         <v>7.029972911706386</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>44541</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>20</v>
@@ -896,19 +968,25 @@
       <c r="K12">
         <v>7.287560640309724</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>44542</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>21</v>
@@ -931,19 +1009,25 @@
       <c r="K13">
         <v>7.121252453244542</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>44543</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>18</v>
@@ -966,19 +1050,25 @@
       <c r="K14">
         <v>7.247080584585756</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>44544</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <v>15</v>
@@ -1001,19 +1091,25 @@
       <c r="K15">
         <v>7.403670290012373</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="2">
         <v>44545</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -1036,19 +1132,25 @@
       <c r="K16">
         <v>7.311218384419629</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="2">
         <v>44546</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>11</v>
@@ -1071,19 +1173,25 @@
       <c r="K17">
         <v>7.482118923552115</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="2">
         <v>44547</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1106,19 +1214,25 @@
       <c r="K18">
         <v>7.39018142822643</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="2">
         <v>44548</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>14</v>
@@ -1141,19 +1255,25 @@
       <c r="K19">
         <v>6.877296071497429</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>6</v>
+      </c>
+      <c r="M19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="2">
         <v>44549</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <v>11</v>
@@ -1176,19 +1296,25 @@
       <c r="K20">
         <v>6.520621127558696</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>7</v>
+      </c>
+      <c r="M20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="2">
         <v>44550</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>18</v>
@@ -1211,19 +1337,25 @@
       <c r="K21">
         <v>7.193685818395112</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="2">
         <v>44551</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <v>13</v>
@@ -1246,19 +1378,25 @@
       <c r="K22">
         <v>7.194436851100335</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="2">
         <v>44552</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -1281,19 +1419,25 @@
       <c r="K23">
         <v>7.070724107260276</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="2">
         <v>44553</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E24">
         <v>9</v>
@@ -1316,19 +1460,25 @@
       <c r="K24">
         <v>7.137278437260385</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="2">
         <v>44554</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E25">
         <v>8</v>
@@ -1351,19 +1501,25 @@
       <c r="K25">
         <v>6.990256500493881</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="2">
         <v>44555</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>12</v>
@@ -1386,19 +1542,25 @@
       <c r="K26">
         <v>7.503840746698951</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26">
+        <v>6</v>
+      </c>
+      <c r="M26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="2">
         <v>44556</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E27">
         <v>7</v>
@@ -1421,19 +1583,25 @@
       <c r="K27">
         <v>7.473069088032197</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="M27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="2">
         <v>44557</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E28">
         <v>11</v>
@@ -1456,19 +1624,25 @@
       <c r="K28">
         <v>7.02108396428914</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="2">
         <v>44558</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E29">
         <v>13</v>
@@ -1491,19 +1665,25 @@
       <c r="K29">
         <v>6.795705775173514</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="2">
         <v>44559</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>12</v>
@@ -1526,19 +1706,25 @@
       <c r="K30">
         <v>6.936342735834049</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="2">
         <v>44560</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E31">
         <v>11</v>
@@ -1561,19 +1747,25 @@
       <c r="K31">
         <v>6.863803391452954</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="M31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="2">
         <v>44561</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E32">
         <v>15</v>
@@ -1596,19 +1788,25 @@
       <c r="K32">
         <v>6.815639990074331</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32">
+        <v>5</v>
+      </c>
+      <c r="M32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="2">
         <v>44562</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E33">
         <v>12</v>
@@ -1631,19 +1829,25 @@
       <c r="K33">
         <v>7.208600337960199</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33">
+        <v>6</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="2">
         <v>44563</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E34">
         <v>26</v>
@@ -1666,19 +1870,25 @@
       <c r="K34">
         <v>7.441320389717617</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34">
+        <v>7</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="2">
         <v>44564</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E35">
         <v>28</v>
@@ -1701,19 +1911,25 @@
       <c r="K35">
         <v>7.686162303492906</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="2">
         <v>44565</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E36">
         <v>14</v>
@@ -1736,19 +1952,25 @@
       <c r="K36">
         <v>7.843848638152472</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="2">
         <v>44566</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E37">
         <v>23</v>
@@ -1771,19 +1993,25 @@
       <c r="K37">
         <v>7.557994958530806</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="2">
         <v>44567</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E38">
         <v>18</v>
@@ -1806,19 +2034,25 @@
       <c r="K38">
         <v>7.661997558901893</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="2">
         <v>44568</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E39">
         <v>23</v>
@@ -1841,19 +2075,25 @@
       <c r="K39">
         <v>7.59337419312129</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39">
+        <v>5</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="2">
         <v>44569</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E40">
         <v>16</v>
@@ -1876,19 +2116,25 @@
       <c r="K40">
         <v>7.528331766707247</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40">
+        <v>6</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="2">
         <v>44570</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E41">
         <v>19</v>
@@ -1911,19 +2157,25 @@
       <c r="K41">
         <v>7.473069088032197</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41">
+        <v>7</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="2">
         <v>44571</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E42">
         <v>18</v>
@@ -1946,19 +2198,25 @@
       <c r="K42">
         <v>7.360103972989152</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="2">
         <v>44572</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E43">
         <v>18</v>
@@ -1981,19 +2239,25 @@
       <c r="K43">
         <v>7.506042178518122</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="2">
         <v>44573</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E44">
         <v>21</v>
@@ -2016,19 +2280,25 @@
       <c r="K44">
         <v>7.317876198626496</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="2">
         <v>44574</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E45">
         <v>15</v>
@@ -2051,19 +2321,25 @@
       <c r="K45">
         <v>7.45298232946546</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45">
+        <v>4</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="2">
         <v>44575</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E46">
         <v>16</v>
@@ -2086,19 +2362,25 @@
       <c r="K46">
         <v>7.69484807238461</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46">
+        <v>5</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="2">
         <v>44576</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E47">
         <v>11</v>
@@ -2121,19 +2403,25 @@
       <c r="K47">
         <v>7.56734567601324</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47">
+        <v>6</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="2">
         <v>44577</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E48">
         <v>16</v>
@@ -2156,19 +2444,25 @@
       <c r="K48">
         <v>7.580699752224563</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48">
+        <v>7</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="2">
         <v>44578</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E49">
         <v>19</v>
@@ -2191,19 +2485,25 @@
       <c r="K49">
         <v>7.432483807917119</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="2">
         <v>44579</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E50">
         <v>16</v>
@@ -2226,19 +2526,25 @@
       <c r="K50">
         <v>7.329749689041512</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="2">
         <v>44580</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E51">
         <v>16</v>
@@ -2261,19 +2567,25 @@
       <c r="K51">
         <v>6.948897222313312</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51">
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="2">
         <v>44581</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E52">
         <v>18</v>
@@ -2296,19 +2608,25 @@
       <c r="K52">
         <v>7.069874128458572</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52">
+        <v>4</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="2">
         <v>44582</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E53">
         <v>24</v>
@@ -2331,19 +2649,25 @@
       <c r="K53">
         <v>7.427738840532894</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53">
+        <v>5</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="2">
         <v>44583</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E54">
         <v>13</v>
@@ -2366,19 +2690,25 @@
       <c r="K54">
         <v>6.871091294610546</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54">
+        <v>6</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="2">
         <v>44584</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E55">
         <v>14</v>
@@ -2401,19 +2731,25 @@
       <c r="K55">
         <v>6.664409020350408</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55">
+        <v>7</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="2">
         <v>44585</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E56">
         <v>26</v>
@@ -2436,19 +2772,25 @@
       <c r="K56">
         <v>6.947937068614969</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="2">
         <v>44586</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E57">
         <v>12</v>
@@ -2471,19 +2813,25 @@
       <c r="K57">
         <v>6.876264611890766</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="2">
         <v>44587</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E58">
         <v>18</v>
@@ -2506,19 +2854,25 @@
       <c r="K58">
         <v>6.774223886357614</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="2">
         <v>44588</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E59">
         <v>12</v>
@@ -2541,19 +2895,25 @@
       <c r="K59">
         <v>6.849066282633458</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59">
+        <v>4</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="2">
         <v>44589</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E60">
         <v>13</v>
@@ -2576,19 +2936,25 @@
       <c r="K60">
         <v>6.635946555686647</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60">
+        <v>5</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="2">
         <v>44590</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D61" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E61">
         <v>14</v>
@@ -2611,19 +2977,25 @@
       <c r="K61">
         <v>7.277938572945661</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61">
+        <v>6</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="2">
         <v>44591</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D62" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E62">
         <v>9</v>
@@ -2646,19 +3018,25 @@
       <c r="K62">
         <v>7.080867896690782</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62">
+        <v>7</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="2">
         <v>44592</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D63" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E63">
         <v>15</v>
@@ -2681,19 +3059,25 @@
       <c r="K63">
         <v>7.138866999945524</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="2">
         <v>44593</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E64">
         <v>25</v>
@@ -2716,19 +3100,25 @@
       <c r="K64">
         <v>6.950814768442584</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="2">
         <v>44594</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D65" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E65">
         <v>13</v>
@@ -2751,19 +3141,25 @@
       <c r="K65">
         <v>7.044905117129371</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="L65">
+        <v>3</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="2">
         <v>44595</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E66">
         <v>21</v>
@@ -2786,19 +3182,25 @@
       <c r="K66">
         <v>6.98933526597456</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="L66">
+        <v>4</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="2">
         <v>44596</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D67" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E67">
         <v>23</v>
@@ -2821,19 +3223,25 @@
       <c r="K67">
         <v>6.966024187106113</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="L67">
+        <v>5</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="2">
         <v>44597</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E68">
         <v>15</v>
@@ -2856,19 +3264,25 @@
       <c r="K68">
         <v>7.254177846456518</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="L68">
+        <v>6</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="2">
         <v>44598</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D69" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E69">
         <v>12</v>
@@ -2891,19 +3305,25 @@
       <c r="K69">
         <v>7.216709486709457</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="L69">
+        <v>7</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="2">
         <v>44599</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D70" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E70">
         <v>22</v>
@@ -2926,19 +3346,25 @@
       <c r="K70">
         <v>7.152268856032539</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="2">
         <v>44600</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D71" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E71">
         <v>17</v>
@@ -2961,19 +3387,25 @@
       <c r="K71">
         <v>7.251344983372214</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="2">
         <v>44601</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D72" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E72">
         <v>20</v>
@@ -2996,19 +3428,25 @@
       <c r="K72">
         <v>7.31455283232408</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="2">
         <v>44602</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D73" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E73">
         <v>23</v>
@@ -3031,19 +3469,25 @@
       <c r="K73">
         <v>7.464509834636528</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="L73">
+        <v>4</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="2">
         <v>44603</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D74" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E74">
         <v>16</v>
@@ -3066,19 +3510,25 @@
       <c r="K74">
         <v>7.56164174558878</v>
       </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="L74">
+        <v>5</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="2">
         <v>44604</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D75" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E75">
         <v>15</v>
@@ -3101,19 +3551,25 @@
       <c r="K75">
         <v>7.40671073017764</v>
       </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="L75">
+        <v>6</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="2">
         <v>44605</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D76" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E76">
         <v>27</v>
@@ -3136,19 +3592,25 @@
       <c r="K76">
         <v>7.607878073278507</v>
       </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="L76">
+        <v>7</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="2">
         <v>44606</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D77" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E77">
         <v>19</v>
@@ -3171,19 +3633,25 @@
       <c r="K77">
         <v>7.903965634032166</v>
       </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="2">
         <v>44607</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D78" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E78">
         <v>17</v>
@@ -3206,19 +3674,25 @@
       <c r="K78">
         <v>7.805882040228621</v>
       </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="2">
         <v>44608</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D79" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E79">
         <v>22</v>
@@ -3241,19 +3715,25 @@
       <c r="K79">
         <v>7.61085279039525</v>
       </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="L79">
+        <v>3</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="2">
         <v>44609</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D80" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E80">
         <v>38</v>
@@ -3276,19 +3756,25 @@
       <c r="K80">
         <v>7.763021309018518</v>
       </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="L80">
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="2">
         <v>44610</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D81" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E81">
         <v>28</v>
@@ -3311,19 +3797,25 @@
       <c r="K81">
         <v>7.534762657037537</v>
       </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="L81">
+        <v>5</v>
+      </c>
+      <c r="M81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="2">
         <v>44611</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D82" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E82">
         <v>23</v>
@@ -3346,19 +3838,25 @@
       <c r="K82">
         <v>7.288244401020124</v>
       </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="L82">
+        <v>6</v>
+      </c>
+      <c r="M82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="2">
         <v>44612</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D83" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E83">
         <v>15</v>
@@ -3381,19 +3879,25 @@
       <c r="K83">
         <v>7.001245622069476</v>
       </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="L83">
+        <v>7</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="2">
         <v>44613</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D84" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E84">
         <v>26</v>
@@ -3416,19 +3920,25 @@
       <c r="K84">
         <v>6.977281341630747</v>
       </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="2">
         <v>44614</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D85" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E85">
         <v>18</v>
@@ -3451,19 +3961,25 @@
       <c r="K85">
         <v>6.953684210870537</v>
       </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="2">
         <v>44615</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D86" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E86">
         <v>21</v>
@@ -3486,19 +4002,25 @@
       <c r="K86">
         <v>6.851184927493743</v>
       </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="L86">
+        <v>3</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="2">
         <v>44616</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D87" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E87">
         <v>5</v>
@@ -3521,19 +4043,25 @@
       <c r="K87">
         <v>7.036148493750536</v>
       </c>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="L87">
+        <v>4</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="2">
         <v>44617</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D88" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E88">
         <v>12</v>
@@ -3556,19 +4084,25 @@
       <c r="K88">
         <v>7.267525427828172</v>
       </c>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="L88">
+        <v>5</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="2">
         <v>44618</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D89" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E89">
         <v>19</v>
@@ -3591,19 +4125,25 @@
       <c r="K89">
         <v>7.236339342754344</v>
       </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="L89">
+        <v>6</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="2">
         <v>44619</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D90" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E90">
         <v>21</v>
@@ -3626,19 +4166,25 @@
       <c r="K90">
         <v>7.069874128458572</v>
       </c>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="L90">
+        <v>7</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="2">
         <v>44620</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D91" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E91">
         <v>21</v>
@@ -3661,19 +4207,25 @@
       <c r="K91">
         <v>7.149131598557407</v>
       </c>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="2">
         <v>44621</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D92" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E92">
         <v>20</v>
@@ -3696,19 +4248,25 @@
       <c r="K92">
         <v>7.442492722794441</v>
       </c>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="2">
         <v>44622</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D93" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E93">
         <v>17</v>
@@ -3731,19 +4289,25 @@
       <c r="K93">
         <v>7.189922170745808</v>
       </c>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="L93">
+        <v>3</v>
+      </c>
+      <c r="M93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="2">
         <v>44623</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D94" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E94">
         <v>20</v>
@@ -3766,19 +4330,25 @@
       <c r="K94">
         <v>7.269616749608169</v>
       </c>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="L94">
+        <v>4</v>
+      </c>
+      <c r="M94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="2">
         <v>44624</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D95" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E95">
         <v>17</v>
@@ -3801,19 +4371,25 @@
       <c r="K95">
         <v>7.102499355774649</v>
       </c>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="L95">
+        <v>5</v>
+      </c>
+      <c r="M95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="2">
         <v>44625</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D96" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E96">
         <v>31</v>
@@ -3836,19 +4412,25 @@
       <c r="K96">
         <v>7.045776576879511</v>
       </c>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="L96">
+        <v>6</v>
+      </c>
+      <c r="M96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="2">
         <v>44626</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D97" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E97">
         <v>23</v>
@@ -3871,19 +4453,25 @@
       <c r="K97">
         <v>7.234898420314831</v>
       </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="L97">
+        <v>7</v>
+      </c>
+      <c r="M97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="2">
         <v>44627</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D98" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E98">
         <v>18</v>
@@ -3906,19 +4494,25 @@
       <c r="K98">
         <v>7.360103972989152</v>
       </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="2">
         <v>44628</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D99" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E99">
         <v>20</v>
@@ -3941,19 +4535,25 @@
       <c r="K99">
         <v>7.239214973779806</v>
       </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="L99">
+        <v>2</v>
+      </c>
+      <c r="M99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="2">
         <v>44629</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E100">
         <v>22</v>
@@ -3976,19 +4576,25 @@
       <c r="K100">
         <v>7.07326971745971</v>
       </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="2">
         <v>44630</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D101" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E101">
         <v>16</v>
@@ -4011,19 +4617,25 @@
       <c r="K101">
         <v>7.164720378771857</v>
       </c>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="L101">
+        <v>4</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="2">
         <v>44631</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D102" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E102">
         <v>24</v>
@@ -4046,19 +4658,25 @@
       <c r="K102">
         <v>7.153833801578843</v>
       </c>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="L102">
+        <v>5</v>
+      </c>
+      <c r="M102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="2">
         <v>44632</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D103" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E103">
         <v>27</v>
@@ -4081,19 +4699,25 @@
       <c r="K103">
         <v>7.244941546337007</v>
       </c>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="L103">
+        <v>6</v>
+      </c>
+      <c r="M103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="2">
         <v>44633</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D104" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E104">
         <v>19</v>
@@ -4116,19 +4740,25 @@
       <c r="K104">
         <v>7.22402480828583</v>
       </c>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="L104">
+        <v>7</v>
+      </c>
+      <c r="M104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="2">
         <v>44634</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D105" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E105">
         <v>13</v>
@@ -4151,19 +4781,25 @@
       <c r="K105">
         <v>7.201916317531627</v>
       </c>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="2">
         <v>44635</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D106" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E106">
         <v>15</v>
@@ -4186,19 +4822,25 @@
       <c r="K106">
         <v>7.109879463072271</v>
       </c>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="L106">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="2">
         <v>44636</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D107" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E107">
         <v>17</v>
@@ -4221,19 +4863,25 @@
       <c r="K107">
         <v>7.272398392570047</v>
       </c>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="L107">
+        <v>3</v>
+      </c>
+      <c r="M107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="2">
         <v>44637</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D108" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E108">
         <v>15</v>
@@ -4256,19 +4904,25 @@
       <c r="K108">
         <v>7.111512116496157</v>
       </c>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="L108">
+        <v>4</v>
+      </c>
+      <c r="M108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="2">
         <v>44638</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D109" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E109">
         <v>19</v>
@@ -4291,19 +4945,25 @@
       <c r="K109">
         <v>7.80098207125774</v>
       </c>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="L109">
+        <v>5</v>
+      </c>
+      <c r="M109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="2">
         <v>44639</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D110" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E110">
         <v>25</v>
@@ -4326,19 +4986,25 @@
       <c r="K110">
         <v>7.771910256435763</v>
       </c>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="L110">
+        <v>6</v>
+      </c>
+      <c r="M110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="2">
         <v>44640</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D111" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E111">
         <v>22</v>
@@ -4361,19 +5027,25 @@
       <c r="K111">
         <v>7.852827812281745</v>
       </c>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="L111">
+        <v>7</v>
+      </c>
+      <c r="M111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="2">
         <v>44641</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E112">
         <v>25</v>
@@ -4396,19 +5068,25 @@
       <c r="K112">
         <v>7.601402334583733</v>
       </c>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" s="2">
         <v>44642</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D113" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E113">
         <v>7</v>
@@ -4431,19 +5109,25 @@
       <c r="K113">
         <v>7.198183577101943</v>
       </c>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="L113">
+        <v>2</v>
+      </c>
+      <c r="M113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" s="2">
         <v>44643</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D114" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E114">
         <v>15</v>
@@ -4466,19 +5150,25 @@
       <c r="K114">
         <v>7.473637108496206</v>
       </c>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="L114">
+        <v>3</v>
+      </c>
+      <c r="M114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" s="2">
         <v>44644</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D115" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E115">
         <v>32</v>
@@ -4501,19 +5191,25 @@
       <c r="K115">
         <v>7.186901020411631</v>
       </c>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="L115">
+        <v>4</v>
+      </c>
+      <c r="M115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" s="2">
         <v>44645</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D116" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E116">
         <v>24</v>
@@ -4536,19 +5232,25 @@
       <c r="K116">
         <v>7.288244401020124</v>
       </c>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="L116">
+        <v>5</v>
+      </c>
+      <c r="M116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" s="2">
         <v>44646</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D117" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E117">
         <v>24</v>
@@ -4571,19 +5273,25 @@
       <c r="K117">
         <v>7.667158255319148</v>
       </c>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="L117">
+        <v>6</v>
+      </c>
+      <c r="M117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" s="2">
         <v>44647</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D118" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E118">
         <v>21</v>
@@ -4606,19 +5314,25 @@
       <c r="K118">
         <v>7.766840537085513</v>
       </c>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="L118">
+        <v>7</v>
+      </c>
+      <c r="M118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" s="2">
         <v>44648</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D119" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E119">
         <v>21</v>
@@ -4641,19 +5355,25 @@
       <c r="K119">
         <v>7.403061091090091</v>
       </c>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" s="2">
         <v>44649</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D120" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E120">
         <v>18</v>
@@ -4676,19 +5396,25 @@
       <c r="K120">
         <v>7.620214770574455</v>
       </c>
-    </row>
-    <row r="121" spans="1:11">
+      <c r="L120">
+        <v>2</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" s="2">
         <v>44650</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D121" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E121">
         <v>19</v>
@@ -4711,19 +5437,25 @@
       <c r="K121">
         <v>7.816013839159027</v>
       </c>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="L121">
+        <v>3</v>
+      </c>
+      <c r="M121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" s="2">
         <v>44651</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D122" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E122">
         <v>14</v>
@@ -4746,19 +5478,25 @@
       <c r="K122">
         <v>7.581719640125308</v>
       </c>
-    </row>
-    <row r="123" spans="1:11">
+      <c r="L122">
+        <v>4</v>
+      </c>
+      <c r="M122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" s="2">
         <v>44652</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C123" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D123" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E123">
         <v>9</v>
@@ -4781,19 +5519,25 @@
       <c r="K123">
         <v>7.752335163302292</v>
       </c>
-    </row>
-    <row r="124" spans="1:11">
+      <c r="L123">
+        <v>5</v>
+      </c>
+      <c r="M123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" s="2">
         <v>44653</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C124" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D124" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E124">
         <v>21</v>
@@ -4816,19 +5560,25 @@
       <c r="K124">
         <v>7.79770203551669</v>
       </c>
-    </row>
-    <row r="125" spans="1:11">
+      <c r="L124">
+        <v>6</v>
+      </c>
+      <c r="M124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" s="2">
         <v>44654</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C125" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D125" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E125">
         <v>24</v>
@@ -4851,19 +5601,25 @@
       <c r="K125">
         <v>7.700295203420117</v>
       </c>
-    </row>
-    <row r="126" spans="1:11">
+      <c r="L125">
+        <v>7</v>
+      </c>
+      <c r="M125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" s="2">
         <v>44655</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C126" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D126" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E126">
         <v>17</v>
@@ -4886,19 +5642,25 @@
       <c r="K126">
         <v>7.761744984658913</v>
       </c>
-    </row>
-    <row r="127" spans="1:11">
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" s="2">
         <v>44656</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C127" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D127" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E127">
         <v>21</v>
@@ -4921,19 +5683,25 @@
       <c r="K127">
         <v>7.720017940432244</v>
       </c>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" s="2">
         <v>44657</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C128" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D128" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E128">
         <v>20</v>
@@ -4956,19 +5724,25 @@
       <c r="K128">
         <v>7.738052297689316</v>
       </c>
-    </row>
-    <row r="129" spans="1:11">
+      <c r="L128">
+        <v>3</v>
+      </c>
+      <c r="M128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="2">
         <v>44658</v>
       </c>
       <c r="B129" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C129" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D129" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E129">
         <v>21</v>
@@ -4991,19 +5765,25 @@
       <c r="K129">
         <v>7.583756300707112</v>
       </c>
-    </row>
-    <row r="130" spans="1:11">
+      <c r="L129">
+        <v>4</v>
+      </c>
+      <c r="M129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="2">
         <v>44659</v>
       </c>
       <c r="B130" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C130" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D130" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E130">
         <v>17</v>
@@ -5026,19 +5806,25 @@
       <c r="K130">
         <v>7.566828479208331</v>
       </c>
-    </row>
-    <row r="131" spans="1:11">
+      <c r="L130">
+        <v>5</v>
+      </c>
+      <c r="M130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="2">
         <v>44660</v>
       </c>
       <c r="B131" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C131" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D131" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E131">
         <v>24</v>
@@ -5061,19 +5847,25 @@
       <c r="K131">
         <v>7.71244383427499</v>
       </c>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="L131">
+        <v>6</v>
+      </c>
+      <c r="M131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="2">
         <v>44661</v>
       </c>
       <c r="B132" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C132" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D132" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E132">
         <v>22</v>
@@ -5096,19 +5888,25 @@
       <c r="K132">
         <v>7.636269603379374</v>
       </c>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="L132">
+        <v>7</v>
+      </c>
+      <c r="M132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="2">
         <v>44662</v>
       </c>
       <c r="B133" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C133" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D133" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E133">
         <v>24</v>
@@ -5131,19 +5929,25 @@
       <c r="K133">
         <v>7.459338895220296</v>
       </c>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="2">
         <v>44663</v>
       </c>
       <c r="B134" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C134" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D134" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E134">
         <v>19</v>
@@ -5166,19 +5970,25 @@
       <c r="K134">
         <v>7.444833273892193</v>
       </c>
-    </row>
-    <row r="135" spans="1:11">
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="2">
         <v>44664</v>
       </c>
       <c r="B135" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C135" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D135" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E135">
         <v>20</v>
@@ -5201,19 +6011,25 @@
       <c r="K135">
         <v>7.483806687665835</v>
       </c>
-    </row>
-    <row r="136" spans="1:11">
+      <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="2">
         <v>44665</v>
       </c>
       <c r="B136" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C136" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D136" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E136">
         <v>20</v>
@@ -5236,19 +6052,25 @@
       <c r="K136">
         <v>7.234177179749849</v>
       </c>
-    </row>
-    <row r="137" spans="1:11">
+      <c r="L136">
+        <v>4</v>
+      </c>
+      <c r="M136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="2">
         <v>44666</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C137" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D137" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E137">
         <v>21</v>
@@ -5271,19 +6093,25 @@
       <c r="K137">
         <v>7.290974778142981</v>
       </c>
-    </row>
-    <row r="138" spans="1:11">
+      <c r="L137">
+        <v>5</v>
+      </c>
+      <c r="M137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="2">
         <v>44667</v>
       </c>
       <c r="B138" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C138" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D138" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E138">
         <v>11</v>
@@ -5306,19 +6134,25 @@
       <c r="K138">
         <v>7.358193752733032</v>
       </c>
-    </row>
-    <row r="139" spans="1:11">
+      <c r="L138">
+        <v>6</v>
+      </c>
+      <c r="M138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="2">
         <v>44668</v>
       </c>
       <c r="B139" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C139" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D139" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E139">
         <v>26</v>
@@ -5341,19 +6175,25 @@
       <c r="K139">
         <v>7.60339933974067</v>
       </c>
-    </row>
-    <row r="140" spans="1:11">
+      <c r="L139">
+        <v>7</v>
+      </c>
+      <c r="M139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="2">
         <v>44669</v>
       </c>
       <c r="B140" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C140" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D140" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E140">
         <v>31</v>
@@ -5376,19 +6216,25 @@
       <c r="K140">
         <v>7.53689712956617</v>
       </c>
-    </row>
-    <row r="141" spans="1:11">
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="2">
         <v>44670</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C141" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D141" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E141">
         <v>16</v>
@@ -5411,19 +6257,25 @@
       <c r="K141">
         <v>7.515889085215125</v>
       </c>
-    </row>
-    <row r="142" spans="1:11">
+      <c r="L141">
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="2">
         <v>44671</v>
       </c>
       <c r="B142" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C142" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D142" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E142">
         <v>16</v>
@@ -5446,19 +6298,25 @@
       <c r="K142">
         <v>7.109879463072271</v>
       </c>
-    </row>
-    <row r="143" spans="1:11">
+      <c r="L142">
+        <v>3</v>
+      </c>
+      <c r="M142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="2">
         <v>44672</v>
       </c>
       <c r="B143" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C143" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D143" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E143">
         <v>30</v>
@@ -5481,19 +6339,25 @@
       <c r="K143">
         <v>7.103322062526113</v>
       </c>
-    </row>
-    <row r="144" spans="1:11">
+      <c r="L143">
+        <v>4</v>
+      </c>
+      <c r="M143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="2">
         <v>44673</v>
       </c>
       <c r="B144" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C144" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D144" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E144">
         <v>36</v>
@@ -5516,19 +6380,25 @@
       <c r="K144">
         <v>7.059617628291383</v>
       </c>
-    </row>
-    <row r="145" spans="1:11">
+      <c r="L144">
+        <v>5</v>
+      </c>
+      <c r="M144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="2">
         <v>44674</v>
       </c>
       <c r="B145" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C145" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D145" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E145">
         <v>16</v>
@@ -5551,19 +6421,25 @@
       <c r="K145">
         <v>7.54274354536855</v>
       </c>
-    </row>
-    <row r="146" spans="1:11">
+      <c r="L145">
+        <v>6</v>
+      </c>
+      <c r="M145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="2">
         <v>44675</v>
       </c>
       <c r="B146" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C146" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D146" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E146">
         <v>17</v>
@@ -5586,19 +6462,25 @@
       <c r="K146">
         <v>7.558516743045645</v>
       </c>
-    </row>
-    <row r="147" spans="1:11">
+      <c r="L146">
+        <v>7</v>
+      </c>
+      <c r="M146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="2">
         <v>44676</v>
       </c>
       <c r="B147" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C147" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D147" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E147">
         <v>23</v>
@@ -5621,19 +6503,25 @@
       <c r="K147">
         <v>7.322510433997394</v>
       </c>
-    </row>
-    <row r="148" spans="1:11">
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="2">
         <v>44677</v>
       </c>
       <c r="B148" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C148" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D148" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E148">
         <v>17</v>
@@ -5656,19 +6544,25 @@
       <c r="K148">
         <v>7.030857476116121</v>
       </c>
-    </row>
-    <row r="149" spans="1:11">
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="2">
         <v>44678</v>
       </c>
       <c r="B149" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C149" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D149" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E149">
         <v>14</v>
@@ -5691,19 +6585,25 @@
       <c r="K149">
         <v>7.266128779556451</v>
       </c>
-    </row>
-    <row r="150" spans="1:11">
+      <c r="L149">
+        <v>3</v>
+      </c>
+      <c r="M149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="2">
         <v>44679</v>
       </c>
       <c r="B150" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C150" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D150" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E150">
         <v>12</v>
@@ -5726,19 +6626,25 @@
       <c r="K150">
         <v>7.126087273299125</v>
       </c>
-    </row>
-    <row r="151" spans="1:11">
+      <c r="L150">
+        <v>4</v>
+      </c>
+      <c r="M150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="2">
         <v>44680</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C151" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D151" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E151">
         <v>11</v>
@@ -5761,19 +6667,25 @@
       <c r="K151">
         <v>7.188412736496954</v>
       </c>
-    </row>
-    <row r="152" spans="1:11">
+      <c r="L151">
+        <v>5</v>
+      </c>
+      <c r="M151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="2">
         <v>44681</v>
       </c>
       <c r="B152" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C152" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D152" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E152">
         <v>23</v>
@@ -5796,19 +6708,25 @@
       <c r="K152">
         <v>7.240649694255466</v>
       </c>
-    </row>
-    <row r="153" spans="1:11">
+      <c r="L152">
+        <v>6</v>
+      </c>
+      <c r="M152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="2">
         <v>44682</v>
       </c>
       <c r="B153" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C153" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D153" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E153">
         <v>9</v>
@@ -5831,19 +6749,25 @@
       <c r="K153">
         <v>7.51479976048867</v>
       </c>
-    </row>
-    <row r="154" spans="1:11">
+      <c r="L153">
+        <v>7</v>
+      </c>
+      <c r="M153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="2">
         <v>44683</v>
       </c>
       <c r="B154" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C154" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D154" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E154">
         <v>19</v>
@@ -5866,19 +6790,25 @@
       <c r="K154">
         <v>7.553286605600419</v>
       </c>
-    </row>
-    <row r="155" spans="1:11">
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="2">
         <v>44684</v>
       </c>
       <c r="B155" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C155" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D155" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E155">
         <v>25</v>
@@ -5901,19 +6831,25 @@
       <c r="K155">
         <v>7.463936604468925</v>
       </c>
-    </row>
-    <row r="156" spans="1:11">
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" s="2">
         <v>44685</v>
       </c>
       <c r="B156" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C156" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D156" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E156">
         <v>16</v>
@@ -5936,19 +6872,25 @@
       <c r="K156">
         <v>7.356918242356021</v>
       </c>
-    </row>
-    <row r="157" spans="1:11">
+      <c r="L156">
+        <v>3</v>
+      </c>
+      <c r="M156">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" s="2">
         <v>44686</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C157" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D157" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E157">
         <v>18</v>
@@ -5971,19 +6913,25 @@
       <c r="K157">
         <v>7.088408778675395</v>
       </c>
-    </row>
-    <row r="158" spans="1:11">
+      <c r="L157">
+        <v>4</v>
+      </c>
+      <c r="M157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" s="2">
         <v>44687</v>
       </c>
       <c r="B158" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C158" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D158" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E158">
         <v>14</v>
@@ -6006,19 +6954,25 @@
       <c r="K158">
         <v>7.393263094763838</v>
       </c>
-    </row>
-    <row r="159" spans="1:11">
+      <c r="L158">
+        <v>5</v>
+      </c>
+      <c r="M158">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" s="2">
         <v>44688</v>
       </c>
       <c r="B159" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C159" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D159" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E159">
         <v>21</v>
@@ -6041,19 +6995,25 @@
       <c r="K159">
         <v>7.508238774678663</v>
       </c>
-    </row>
-    <row r="160" spans="1:11">
+      <c r="L159">
+        <v>6</v>
+      </c>
+      <c r="M159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" s="2">
         <v>44689</v>
       </c>
       <c r="B160" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C160" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D160" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E160">
         <v>14</v>
@@ -6076,19 +7036,25 @@
       <c r="K160">
         <v>7.343426229147367</v>
       </c>
-    </row>
-    <row r="161" spans="1:11">
+      <c r="L160">
+        <v>7</v>
+      </c>
+      <c r="M160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
       <c r="A161" s="2">
         <v>44690</v>
       </c>
       <c r="B161" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C161" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D161" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E161">
         <v>15</v>
@@ -6111,19 +7077,25 @@
       <c r="K161">
         <v>7.62608275807238</v>
       </c>
-    </row>
-    <row r="162" spans="1:11">
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162" s="2">
         <v>44691</v>
       </c>
       <c r="B162" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C162" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D162" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E162">
         <v>13</v>
@@ -6146,19 +7118,25 @@
       <c r="K162">
         <v>7.569927655242652</v>
       </c>
-    </row>
-    <row r="163" spans="1:11">
+      <c r="L162">
+        <v>2</v>
+      </c>
+      <c r="M162">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
       <c r="A163" s="2">
         <v>44692</v>
       </c>
       <c r="B163" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C163" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D163" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E163">
         <v>15</v>
@@ -6181,19 +7159,25 @@
       <c r="K163">
         <v>7.232010331664759</v>
       </c>
-    </row>
-    <row r="164" spans="1:11">
+      <c r="L163">
+        <v>3</v>
+      </c>
+      <c r="M163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
       <c r="A164" s="2">
         <v>44693</v>
       </c>
       <c r="B164" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C164" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D164" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E164">
         <v>14</v>
@@ -6216,19 +7200,25 @@
       <c r="K164">
         <v>7.102499355774649</v>
       </c>
-    </row>
-    <row r="165" spans="1:11">
+      <c r="L164">
+        <v>4</v>
+      </c>
+      <c r="M164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165" s="2">
         <v>44694</v>
       </c>
       <c r="B165" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C165" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D165" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E165">
         <v>11</v>
@@ -6251,19 +7241,25 @@
       <c r="K165">
         <v>7.504942068396171</v>
       </c>
-    </row>
-    <row r="166" spans="1:11">
+      <c r="L165">
+        <v>5</v>
+      </c>
+      <c r="M165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
       <c r="A166" s="2">
         <v>44695</v>
       </c>
       <c r="B166" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C166" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D166" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E166">
         <v>19</v>
@@ -6286,19 +7282,25 @@
       <c r="K166">
         <v>7.479864131165026</v>
       </c>
-    </row>
-    <row r="167" spans="1:11">
+      <c r="L166">
+        <v>6</v>
+      </c>
+      <c r="M166">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
       <c r="A167" s="2">
         <v>44696</v>
       </c>
       <c r="B167" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C167" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D167" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E167">
         <v>12</v>
@@ -6321,19 +7323,25 @@
       <c r="K167">
         <v>7.368339686311381</v>
       </c>
-    </row>
-    <row r="168" spans="1:11">
+      <c r="L167">
+        <v>7</v>
+      </c>
+      <c r="M167">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168" s="2">
         <v>44697</v>
       </c>
       <c r="B168" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C168" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D168" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E168">
         <v>12</v>
@@ -6356,19 +7364,25 @@
       <c r="K168">
         <v>7.286191714702382</v>
       </c>
-    </row>
-    <row r="169" spans="1:11">
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169" s="2">
         <v>44698</v>
       </c>
       <c r="B169" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C169" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D169" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E169">
         <v>11</v>
@@ -6391,19 +7405,25 @@
       <c r="K169">
         <v>7.117205503164344</v>
       </c>
-    </row>
-    <row r="170" spans="1:11">
+      <c r="L169">
+        <v>2</v>
+      </c>
+      <c r="M169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170" s="2">
         <v>44699</v>
       </c>
       <c r="B170" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C170" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D170" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E170">
         <v>11</v>
@@ -6426,19 +7446,25 @@
       <c r="K170">
         <v>7.364547014255642</v>
       </c>
-    </row>
-    <row r="171" spans="1:11">
+      <c r="L170">
+        <v>3</v>
+      </c>
+      <c r="M170">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
       <c r="A171" s="2">
         <v>44700</v>
       </c>
       <c r="B171" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C171" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D171" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E171">
         <v>20</v>
@@ -6461,19 +7487,25 @@
       <c r="K171">
         <v>7.144407180321139</v>
       </c>
-    </row>
-    <row r="172" spans="1:11">
+      <c r="L171">
+        <v>4</v>
+      </c>
+      <c r="M171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
       <c r="A172" s="2">
         <v>44701</v>
       </c>
       <c r="B172" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C172" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D172" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E172">
         <v>13</v>
@@ -6496,19 +7528,25 @@
       <c r="K172">
         <v>7.396335293800808</v>
       </c>
-    </row>
-    <row r="173" spans="1:11">
+      <c r="L172">
+        <v>5</v>
+      </c>
+      <c r="M172">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
       <c r="A173" s="2">
         <v>44702</v>
       </c>
       <c r="B173" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C173" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D173" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E173">
         <v>10</v>
@@ -6531,19 +7569,25 @@
       <c r="K173">
         <v>7.154615356913663</v>
       </c>
-    </row>
-    <row r="174" spans="1:11">
+      <c r="L173">
+        <v>6</v>
+      </c>
+      <c r="M173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
       <c r="A174" s="2">
         <v>44703</v>
       </c>
       <c r="B174" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C174" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D174" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E174">
         <v>20</v>
@@ -6566,19 +7610,25 @@
       <c r="K174">
         <v>7.182352111885263</v>
       </c>
-    </row>
-    <row r="175" spans="1:11">
+      <c r="L174">
+        <v>7</v>
+      </c>
+      <c r="M174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13">
       <c r="A175" s="2">
         <v>44704</v>
       </c>
       <c r="B175" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C175" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D175" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E175">
         <v>14</v>
@@ -6601,19 +7651,25 @@
       <c r="K175">
         <v>7.503289630675082</v>
       </c>
-    </row>
-    <row r="176" spans="1:11">
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13">
       <c r="A176" s="2">
         <v>44705</v>
       </c>
       <c r="B176" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C176" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D176" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E176">
         <v>19</v>
@@ -6636,19 +7692,25 @@
       <c r="K176">
         <v>7.222566018822171</v>
       </c>
-    </row>
-    <row r="177" spans="1:11">
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
       <c r="A177" s="2">
         <v>44706</v>
       </c>
       <c r="B177" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C177" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D177" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E177">
         <v>10</v>
@@ -6671,19 +7733,25 @@
       <c r="K177">
         <v>7.075808863978387</v>
       </c>
-    </row>
-    <row r="178" spans="1:11">
+      <c r="L177">
+        <v>3</v>
+      </c>
+      <c r="M177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
       <c r="A178" s="2">
         <v>44707</v>
       </c>
       <c r="B178" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C178" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D178" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E178">
         <v>20</v>
@@ -6706,19 +7774,25 @@
       <c r="K178">
         <v>6.877296071497429</v>
       </c>
-    </row>
-    <row r="179" spans="1:11">
+      <c r="L178">
+        <v>4</v>
+      </c>
+      <c r="M178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
       <c r="A179" s="2">
         <v>44708</v>
       </c>
       <c r="B179" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C179" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D179" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E179">
         <v>13</v>
@@ -6741,19 +7815,25 @@
       <c r="K179">
         <v>6.915723448631314</v>
       </c>
-    </row>
-    <row r="180" spans="1:11">
+      <c r="L179">
+        <v>5</v>
+      </c>
+      <c r="M179">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
       <c r="A180" s="2">
         <v>44709</v>
       </c>
       <c r="B180" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C180" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D180" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E180">
         <v>14</v>
@@ -6776,19 +7856,25 @@
       <c r="K180">
         <v>7.198183577101943</v>
       </c>
-    </row>
-    <row r="181" spans="1:11">
+      <c r="L180">
+        <v>6</v>
+      </c>
+      <c r="M180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
       <c r="A181" s="2">
         <v>44710</v>
       </c>
       <c r="B181" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C181" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D181" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E181">
         <v>19</v>
@@ -6811,19 +7897,25 @@
       <c r="K181">
         <v>7.283448228756631</v>
       </c>
-    </row>
-    <row r="182" spans="1:11">
+      <c r="L181">
+        <v>7</v>
+      </c>
+      <c r="M181">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
       <c r="A182" s="2">
         <v>44711</v>
       </c>
       <c r="B182" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C182" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D182" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E182">
         <v>16</v>
@@ -6846,19 +7938,25 @@
       <c r="K182">
         <v>7.410951875583637</v>
       </c>
-    </row>
-    <row r="183" spans="1:11">
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13">
       <c r="A183" s="2">
         <v>44712</v>
       </c>
       <c r="B183" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C183" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D183" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E183">
         <v>14</v>
@@ -6881,19 +7979,25 @@
       <c r="K183">
         <v>7.491087593534876</v>
       </c>
-    </row>
-    <row r="184" spans="1:11">
+      <c r="L183">
+        <v>2</v>
+      </c>
+      <c r="M183">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13">
       <c r="A184" s="2">
         <v>44713</v>
       </c>
       <c r="B184" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C184" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D184" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E184">
         <v>18</v>
@@ -6916,19 +8020,25 @@
       <c r="K184">
         <v>7.642044402873258</v>
       </c>
-    </row>
-    <row r="185" spans="1:11">
+      <c r="L184">
+        <v>3</v>
+      </c>
+      <c r="M184">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13">
       <c r="A185" s="2">
         <v>44714</v>
       </c>
       <c r="B185" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C185" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D185" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E185">
         <v>15</v>
@@ -6951,19 +8061,25 @@
       <c r="K185">
         <v>7.595387278853972</v>
       </c>
-    </row>
-    <row r="186" spans="1:11">
+      <c r="L185">
+        <v>4</v>
+      </c>
+      <c r="M185">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13">
       <c r="A186" s="2">
         <v>44715</v>
       </c>
       <c r="B186" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C186" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D186" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E186">
         <v>15</v>
@@ -6986,19 +8102,25 @@
       <c r="K186">
         <v>7.369600720526409</v>
       </c>
-    </row>
-    <row r="187" spans="1:11">
+      <c r="L186">
+        <v>5</v>
+      </c>
+      <c r="M186">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13">
       <c r="A187" s="2">
         <v>44716</v>
       </c>
       <c r="B187" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C187" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D187" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E187">
         <v>19</v>
@@ -7021,19 +8143,25 @@
       <c r="K187">
         <v>7.232010331664759</v>
       </c>
-    </row>
-    <row r="188" spans="1:11">
+      <c r="L187">
+        <v>6</v>
+      </c>
+      <c r="M187">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13">
       <c r="A188" s="2">
         <v>44717</v>
       </c>
       <c r="B188" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C188" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D188" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E188">
         <v>20</v>
@@ -7056,19 +8184,25 @@
       <c r="K188">
         <v>7.166265974133638</v>
       </c>
-    </row>
-    <row r="189" spans="1:11">
+      <c r="L188">
+        <v>7</v>
+      </c>
+      <c r="M188">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13">
       <c r="A189" s="2">
         <v>44718</v>
       </c>
       <c r="B189" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C189" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D189" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E189">
         <v>11</v>
@@ -7091,19 +8225,25 @@
       <c r="K189">
         <v>7.257707677160043</v>
       </c>
-    </row>
-    <row r="190" spans="1:11">
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13">
       <c r="A190" s="2">
         <v>44719</v>
       </c>
       <c r="B190" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C190" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D190" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E190">
         <v>15</v>
@@ -7126,19 +8266,25 @@
       <c r="K190">
         <v>7.373374309910049</v>
       </c>
-    </row>
-    <row r="191" spans="1:11">
+      <c r="L190">
+        <v>2</v>
+      </c>
+      <c r="M190">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13">
       <c r="A191" s="2">
         <v>44720</v>
       </c>
       <c r="B191" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C191" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D191" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E191">
         <v>13</v>
@@ -7161,19 +8307,25 @@
       <c r="K191">
         <v>7.562681246721884</v>
       </c>
-    </row>
-    <row r="192" spans="1:11">
+      <c r="L191">
+        <v>3</v>
+      </c>
+      <c r="M191">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13">
       <c r="A192" s="2">
         <v>44721</v>
       </c>
       <c r="B192" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C192" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D192" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E192">
         <v>11</v>
@@ -7196,19 +8348,25 @@
       <c r="K192">
         <v>7.555381944240273</v>
       </c>
-    </row>
-    <row r="193" spans="1:11">
+      <c r="L192">
+        <v>4</v>
+      </c>
+      <c r="M192">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13">
       <c r="A193" s="2">
         <v>44722</v>
       </c>
       <c r="B193" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C193" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D193" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E193">
         <v>19</v>
@@ -7231,19 +8389,25 @@
       <c r="K193">
         <v>7.523481312573497</v>
       </c>
-    </row>
-    <row r="194" spans="1:11">
+      <c r="L193">
+        <v>5</v>
+      </c>
+      <c r="M193">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13">
       <c r="A194" s="2">
         <v>44723</v>
       </c>
       <c r="B194" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C194" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D194" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E194">
         <v>20</v>
@@ -7266,19 +8430,25 @@
       <c r="K194">
         <v>7.681099001536359</v>
       </c>
-    </row>
-    <row r="195" spans="1:11">
+      <c r="L194">
+        <v>6</v>
+      </c>
+      <c r="M194">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13">
       <c r="A195" s="2">
         <v>44724</v>
       </c>
       <c r="B195" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C195" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D195" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E195">
         <v>14</v>
@@ -7301,19 +8471,25 @@
       <c r="K195">
         <v>7.427144133408616</v>
       </c>
-    </row>
-    <row r="196" spans="1:11">
+      <c r="L195">
+        <v>7</v>
+      </c>
+      <c r="M195">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13">
       <c r="A196" s="2">
         <v>44725</v>
       </c>
       <c r="B196" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C196" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D196" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E196">
         <v>22</v>
@@ -7336,19 +8512,25 @@
       <c r="K196">
         <v>7.567862605463882</v>
       </c>
-    </row>
-    <row r="197" spans="1:11">
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13">
       <c r="A197" s="2">
         <v>44726</v>
       </c>
       <c r="B197" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C197" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D197" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E197">
         <v>16</v>
@@ -7371,19 +8553,25 @@
       <c r="K197">
         <v>7.647308832356238</v>
       </c>
-    </row>
-    <row r="198" spans="1:11">
+      <c r="L197">
+        <v>2</v>
+      </c>
+      <c r="M197">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13">
       <c r="A198" s="2">
         <v>44727</v>
       </c>
       <c r="B198" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C198" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D198" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E198">
         <v>9</v>
@@ -7406,19 +8594,25 @@
       <c r="K198">
         <v>7.620705086838262</v>
       </c>
-    </row>
-    <row r="199" spans="1:11">
+      <c r="L198">
+        <v>3</v>
+      </c>
+      <c r="M198">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13">
       <c r="A199" s="2">
         <v>44728</v>
       </c>
       <c r="B199" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C199" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D199" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E199">
         <v>20</v>
@@ -7441,19 +8635,25 @@
       <c r="K199">
         <v>7.6586995582683</v>
       </c>
-    </row>
-    <row r="200" spans="1:11">
+      <c r="L199">
+        <v>4</v>
+      </c>
+      <c r="M199">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13">
       <c r="A200" s="2">
         <v>44729</v>
       </c>
       <c r="B200" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C200" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D200" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E200">
         <v>15</v>
@@ -7476,19 +8676,25 @@
       <c r="K200">
         <v>7.692569648067906</v>
       </c>
-    </row>
-    <row r="201" spans="1:11">
+      <c r="L200">
+        <v>5</v>
+      </c>
+      <c r="M200">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13">
       <c r="A201" s="2">
         <v>44730</v>
       </c>
       <c r="B201" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C201" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D201" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E201">
         <v>16</v>
@@ -7511,19 +8717,25 @@
       <c r="K201">
         <v>7.395721608602045</v>
       </c>
-    </row>
-    <row r="202" spans="1:11">
+      <c r="L201">
+        <v>6</v>
+      </c>
+      <c r="M201">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13">
       <c r="A202" s="2">
         <v>44731</v>
       </c>
       <c r="B202" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C202" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D202" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E202">
         <v>10</v>
@@ -7546,19 +8758,25 @@
       <c r="K202">
         <v>7.69484807238461</v>
       </c>
-    </row>
-    <row r="203" spans="1:11">
+      <c r="L202">
+        <v>7</v>
+      </c>
+      <c r="M202">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13">
       <c r="A203" s="2">
         <v>44732</v>
       </c>
       <c r="B203" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C203" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D203" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E203">
         <v>15</v>
@@ -7581,19 +8799,25 @@
       <c r="K203">
         <v>7.543273346705446</v>
       </c>
-    </row>
-    <row r="204" spans="1:11">
+      <c r="L203">
+        <v>1</v>
+      </c>
+      <c r="M203">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13">
       <c r="A204" s="2">
         <v>44733</v>
       </c>
       <c r="B204" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C204" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D204" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E204">
         <v>7</v>
@@ -7616,19 +8840,25 @@
       <c r="K204">
         <v>7.338888133838879</v>
       </c>
-    </row>
-    <row r="205" spans="1:11">
+      <c r="L204">
+        <v>2</v>
+      </c>
+      <c r="M204">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13">
       <c r="A205" s="2">
         <v>44734</v>
       </c>
       <c r="B205" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C205" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D205" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E205">
         <v>17</v>
@@ -7651,19 +8881,25 @@
       <c r="K205">
         <v>7.065613363597717</v>
       </c>
-    </row>
-    <row r="206" spans="1:11">
+      <c r="L205">
+        <v>3</v>
+      </c>
+      <c r="M205">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13">
       <c r="A206" s="2">
         <v>44735</v>
       </c>
       <c r="B206" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C206" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D206" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E206">
         <v>13</v>
@@ -7686,19 +8922,25 @@
       <c r="K206">
         <v>7.226209010100671</v>
       </c>
-    </row>
-    <row r="207" spans="1:11">
+      <c r="L206">
+        <v>4</v>
+      </c>
+      <c r="M206">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13">
       <c r="A207" s="2">
         <v>44736</v>
       </c>
       <c r="B207" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C207" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D207" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E207">
         <v>15</v>
@@ -7721,19 +8963,25 @@
       <c r="K207">
         <v>7.045776576879511</v>
       </c>
-    </row>
-    <row r="208" spans="1:11">
+      <c r="L207">
+        <v>5</v>
+      </c>
+      <c r="M207">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13">
       <c r="A208" s="2">
         <v>44737</v>
       </c>
       <c r="B208" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C208" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D208" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E208">
         <v>16</v>
@@ -7756,19 +9004,25 @@
       <c r="K208">
         <v>6.763884908562435</v>
       </c>
-    </row>
-    <row r="209" spans="1:11">
+      <c r="L208">
+        <v>6</v>
+      </c>
+      <c r="M208">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13">
       <c r="A209" s="2">
         <v>44738</v>
       </c>
       <c r="B209" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C209" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D209" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E209">
         <v>13</v>
@@ -7791,19 +9045,25 @@
       <c r="K209">
         <v>7.105786129481271</v>
       </c>
-    </row>
-    <row r="210" spans="1:11">
+      <c r="L209">
+        <v>7</v>
+      </c>
+      <c r="M209">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13">
       <c r="A210" s="2">
         <v>44739</v>
       </c>
       <c r="B210" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C210" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D210" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E210">
         <v>16</v>
@@ -7826,19 +9086,25 @@
       <c r="K210">
         <v>7.179307969504034</v>
       </c>
-    </row>
-    <row r="211" spans="1:11">
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13">
       <c r="A211" s="2">
         <v>44740</v>
       </c>
       <c r="B211" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C211" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D211" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E211">
         <v>13</v>
@@ -7861,19 +9127,25 @@
       <c r="K211">
         <v>6.786716950605081</v>
       </c>
-    </row>
-    <row r="212" spans="1:11">
+      <c r="L211">
+        <v>2</v>
+      </c>
+      <c r="M211">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13">
       <c r="A212" s="2">
         <v>44741</v>
       </c>
       <c r="B212" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C212" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D212" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E212">
         <v>16</v>
@@ -7896,19 +9168,25 @@
       <c r="K212">
         <v>6.90875477931522</v>
       </c>
-    </row>
-    <row r="213" spans="1:11">
+      <c r="L212">
+        <v>3</v>
+      </c>
+      <c r="M212">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13">
       <c r="A213" s="2">
         <v>44742</v>
       </c>
       <c r="B213" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C213" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D213" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E213">
         <v>8</v>
@@ -7930,6 +9208,12 @@
       </c>
       <c r="K213">
         <v>6.775366090936392</v>
+      </c>
+      <c r="L213">
+        <v>4</v>
+      </c>
+      <c r="M213">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
